--- a/exports/rfsd_profile_7722514880.xlsx
+++ b/exports/rfsd_profile_7722514880.xlsx
@@ -3743,11 +3743,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-17T22:00:34.190407</t>
+          <t>2025-12-18T13:48:21.798432</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32.19</v>
+        <v>84.73999999999999</v>
       </c>
     </row>
   </sheetData>
